--- a/medicine/Enfance/Axel_Scheffler/Axel_Scheffler.xlsx
+++ b/medicine/Enfance/Axel_Scheffler/Axel_Scheffler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Axel Scheffler (né en 1957) est un illustrateur et animateur allemand résidant à Londres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Axel Scheffler (né en 1957) est un illustrateur et animateur allemand résidant à Londres.
 Il est connu pour ses illustrations de livres jeunesse, en particulier Gruffalo et Petit Gruffalo, écrits par Julia Donaldson, dont il est un collaborateur régulier. 
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Scheffler est né à Hambourg et a déménagé en Angleterre en 1982. Il est diplômé de la Bath School of Art and Design (en) en 1985, puis travaille dans la publicité et l'édition. Il a illustré les livres de divers auteurs britanniques, allemands et néerlandais dont Julia Donaldson, Jon Blake (en), Paul Shipton, David Henry Wilson (en), Uwe Timm, Paul van Loon, Toon Tellegen (en) et Ian Whybrow (en), et écrit aussi ses propres livres.
 </t>
@@ -545,9 +559,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums illustrés
-Séries
-Série Zébulon le dragon (Zog)
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Série Zébulon le dragon (Zog)
 Zébulon le dragon (Zog, 2010) / Julia Donaldson ; ill. Axel Scheffler ; trad. Anne Krief.
 Paris : Gallimard jeunesse, 09/2010, 28 p.  (ISBN 978-2-07-063420-0). Réimpr. 05/2015
 Zébulon le dragon et les médecins volants (Zog and The Flying Doctors, 2016) / Julia Donaldson ; ill. Axel Scheffler ; trad. Catherine Gibert.
@@ -556,25 +578,63 @@
 Gruffalo (The Gruffalo) / Julia Donaldson ; ill. Axel Scheffler.
 Paris : Autrement jeunesse, 01/1999, 26 p.  (ISBN 2-86260-840-8)
 Paris : Gallimard jeunesse, coll. "Folio benjamin", no 390, 09/1999.  (ISBN 2-07-052672-0)
-nouv. trad. Jean-François Ménard. Paris : Gallimard jeunesse, 2013, [24] p.  (ISBN 978-2-07-065027-9).
-Paris : Gallimard jeunesse, coll. "Folio benjamin" no 51, 2008, [30] p. + 1 CD audio (texte lu par Raphaëline Goupilleau).  (ISBN 978-2-07-054865-1)
+nouv. trad. Jean-François Ménard. Paris : Gallimard jeunesse, 2013,  p.  (ISBN 978-2-07-065027-9).
+Paris : Gallimard jeunesse, coll. "Folio benjamin" no 51, 2008,  p. + 1 CD audio (texte lu par Raphaëline Goupilleau).  (ISBN 978-2-07-054865-1)
 Petit Gruffalo (The Gruffalo's Child) / Julia Donaldson ; ill. Axel Scheffler.
 traduction de Paul Paludis. Paris : Autrement jeunesse, 2004, 30 p.  (ISBN 2-7467-0569-9)
 Paris : Gallimard jeunesse, coll. "Folio benjamin : niveau 2, je lis tout seul" n° 129, 2006, 32 p.  (ISBN 2-07-057162-9)
 Paris : Gallimard jeunesse, coll. "L'Heure des histoires" n° 52, 2011, 32 p.  (ISBN 978-2-07-069681-9)
-nouvelle traduction par Jean-François Ménard. Paris : Gallimard jeunesse, DL 2013, [30] p.  (ISBN 978-2-07-065028-6)
+nouvelle traduction par Jean-François Ménard. Paris : Gallimard jeunesse, DL 2013,  p.  (ISBN 978-2-07-065028-6)
 Johannes Weiland, Uwe Heidschötter, réal. ; Johanna Stuttman, adapt. ; René Aubry, comp. Paris : Gallimard jeunesse, coll. "L'Heure des histoires" n° 52, 2013, 32 p.  (ISBN 978-2-07-065632-5). Dessin animé sur 1 DVD vidéo zone 2 (27 min). L'objet est un étui en fourrure synthétique marron contenant le livre et le DVD.
 conception des jeux et ateliers, Geneviève Keck ; Raphaëline Goupilleau, voix. Gallimard jeunesse, coll. "L'Heure des histoires" n° 52, 2014, 32 p.  (ISBN 978-2-07-065312-6). + 1 disque compact (15 min).
 Série Pip et Prune (Pip and Posy)
-La Super-trotinette (The Super Scooter) / Axel Scheffler. Paris : Gallimard jeunesse, 03/2012, [26] p.  (ISBN 978-2-07-064294-6)
-La Petite Flaque (The Little Puddle, 2011) / Axel Scheffler. Paris : Gallimard jeunesse, 03/2012, [26] p.  (ISBN 978-2-07-064295-3)
-Le Monstre terrifiant (The Scary Monster) / Axel Scheffler. Paris : Gallimard jeunesse, 09/2012, [24] p.  (ISBN 978-2-07-064592-3)
-Le Beau Ballon (The Big Balloon) / Axel Scheffler. Paris : Gallimard jeunesse, 03/2013, [24] p.  (ISBN 978-2-07-064593-0)
-Vive la neige ! (The Snow Day, 2012) / Axel Scheffler. Paris : Gallimard jeunesse, 08/2013, [24] p.  (ISBN 978-2-07-065473-4)
-J'ai oublié mon doudou ! (The Bedtime Frog, 2013) / Axel Scheffler. Paris : Gallimard jeunesse, 02/2014, [24] p.  (ISBN 978-2-07-065778-0)
-Au bord de la mer (The New Friend, 2016) / Axel Scheffler. Paris : Gallimard jeunesse, 05/2016, [30] p.  (ISBN 978-2-07-059963-9)
-One shots
-Léo Tête-en-l'air (You're a Hero, Daley B.!) / Jon Blake (en) ; ill. Axel Scheffler ; trad. Nadine Robert.
+La Super-trotinette (The Super Scooter) / Axel Scheffler. Paris : Gallimard jeunesse, 03/2012,  p.  (ISBN 978-2-07-064294-6)
+La Petite Flaque (The Little Puddle, 2011) / Axel Scheffler. Paris : Gallimard jeunesse, 03/2012,  p.  (ISBN 978-2-07-064295-3)
+Le Monstre terrifiant (The Scary Monster) / Axel Scheffler. Paris : Gallimard jeunesse, 09/2012,  p.  (ISBN 978-2-07-064592-3)
+Le Beau Ballon (The Big Balloon) / Axel Scheffler. Paris : Gallimard jeunesse, 03/2013,  p.  (ISBN 978-2-07-064593-0)
+Vive la neige ! (The Snow Day, 2012) / Axel Scheffler. Paris : Gallimard jeunesse, 08/2013,  p.  (ISBN 978-2-07-065473-4)
+J'ai oublié mon doudou ! (The Bedtime Frog, 2013) / Axel Scheffler. Paris : Gallimard jeunesse, 02/2014,  p.  (ISBN 978-2-07-065778-0)
+Au bord de la mer (The New Friend, 2016) / Axel Scheffler. Paris : Gallimard jeunesse, 05/2016,  p.  (ISBN 978-2-07-059963-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>One shots</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Léo Tête-en-l'air (You're a Hero, Daley B.!) / Jon Blake (en) ; ill. Axel Scheffler ; trad. Nadine Robert.
 Montréal : Comme des géants, 32 p.  (ISBN 978-2-924322-13-0)
 Une maison trop petite / Julia Donaldson ; ill. Axel Scheffler.
 Coppet : Calligram, coll. "Petite bibliothèque Calligram. Benjamin" no 9, 10/1995, 32 p.  (ISBN 2-88445-282-6)
@@ -603,7 +663,7 @@
 Paris : Gallimard-Jeunesse, coll. "L'Heure des histoires" no 125, 02/2017, 34 p.  (ISBN 978-2-07-507788-0)
 dans 3 histoires de voyage. Paris : Gallimard-Jeunesse, coll. "Le Trésor de l'Heure des histoires", 06/2017, 96 p.  (ISBN 978-2-07-507938-9)
 Timioche : le petit poisson qui racontait des histoires (Tiddler: the Story-Telling Fish, 2007) / Julia Donaldson ; ill. Axel Scheffler ; trad. Anne Krief.
-Paris : Gallimard jeunesse, 10/2007, [32] p.  (ISBN 978-2-07-061485-1). Réimpr. 05/2015.
+Paris : Gallimard jeunesse, 10/2007,  p.  (ISBN 978-2-07-061485-1). Réimpr. 05/2015.
 dans Les 15 plus belles histoires pour les petits garçons. Paris : Gallimard jeunesse, 2008, 118 p.  (ISBN 978-2-07-061854-5)
 Paris : Gallimard-Jeunesse, coll. "Folio cadet" no 9, 09/2009, 39 p.  (ISBN 978-2-07-062750-9)
 MacPat le chat chanteur (Tabby McTat, 2009) / Julia Donaldson ; ill. Axel Scheffler ; trad. Anne Krief.
@@ -613,33 +673,203 @@
 Paris : Gallimard jeunesse, 09/2011, 32 p.  (ISBN 978-2-07-064015-7)
 Marions-nous ! (The Scarecrows' Wedding, 2014) / Julia Donaldson ; ill. Axel Scheffler ; trad. Jean-François Ménard.
 Paris : Gallimard-Jeunesse, 08/2014.  (ISBN 978-2-07-066217-3)
-Paris : Gallimard-Jeunesse, coll. "L'Heure des histoires" no 112, 01/2016, 34 p.  (ISBN 978-2-07-056984-7)
-Tout-carton
-Je veux faire la sieste (Rabbit's Nap, 2000) / Julia Donaldson ; ill. Axel Scheffler. Paris : Gallimard jeunesse, 02/2017, 12 p.  (ISBN 978-2-07-507699-9)
+Paris : Gallimard-Jeunesse, coll. "L'Heure des histoires" no 112, 01/2016, 34 p.  (ISBN 978-2-07-056984-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tout-carton</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Je veux faire la sieste (Rabbit's Nap, 2000) / Julia Donaldson ; ill. Axel Scheffler. Paris : Gallimard jeunesse, 02/2017, 12 p.  (ISBN 978-2-07-507699-9)
 Je t'invite à ma fête (Postman Bear, 2000) / Julia Donaldson ; ill. Axel Scheffler. Paris : Gallimard jeunesse, 02/2017, 12 p.  (ISBN 978-2-07-507700-2)
 Que font les animaux ? (Animal Actions, 2011) / Julia Donaldson ; ill. Axel Scheffler. Paris : Gallimard jeunesse, coll. "Mon 1er Gruffalo", 03/2013, 12 p.  (ISBN 978-2-07-065258-7)
 Les Contraires (Opposites, 2011) / Julia Donaldson ; ill. Axel Scheffler. Paris : Gallimard jeunesse, coll. "Mon 1er Gruffalo", 03/2013, 12 p.  (ISBN 978-2-07-065257-0)
 Coffret Gruffalo 2 livres tout-carton
 Gruffalo dans la forêt (livre poussette)
-Coucou, Gruffalo ! (livre poussette) / Julia Donaldson ; ill. Axel Scheffler. Paris : Gallimard jeunesse, 03/2013, 12 p.  (ISBN 978-2-07-065255-6)
-Documentaires
-Sam plante un tournesol / Kate Petty ; ill. d'Axel Scheffler.
+Coucou, Gruffalo ! (livre poussette) / Julia Donaldson ; ill. Axel Scheffler. Paris : Gallimard jeunesse, 03/2013, 12 p.  (ISBN 978-2-07-065255-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Documentaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sam plante un tournesol / Kate Petty ; ill. d'Axel Scheffler.
 Bruxelles : Casterman, 04/1997, 24 p.  (ISBN 2-203-14253-7)
 Rosie plante un radis / Kate Petty ; ill. d'Axel Scheffler.
 Bruxelles : Casterman, 04/1997, 24 p.  (ISBN 2-203-14254-5)
 Proverbes du monde entier / Axel Scheffler
 Paris : Seuil jeunesse, 10/1997, 128 p.  (ISBN 2-02-032015-0)
 Comment élever un écureuil de compagnie : manuel à l'usage de tous (Über das Halten von Eichhörnchen) / ill. d'Axel Scheffler ; d'après un texte d'Arthur Mee, paru dans "L'encyclopédie pour la jeunesse" ; traduction de Sophie Giraud.
-Paris : Hélium, 2010, 35 p.  (ISBN 978-2-35851-022-6)
-Livres-jeux
-Méli-mélo de la savane : rimes rigolotes et créatures loufoques pour se tordre de rire ! (Flip flap farm). Paris : Gallimard jeunesse, 2015, [22] p.  (ISBN 978-2-07-066391-0)
-Méli-mélo de la jungle : "rimes rigolotes et créatures loufoques pour se tordre de rire ! (Flip flap jungle). Paris : Gallimard jeunesse, 2016, [22] p.  (ISBN 978-2-07-066672-0)
-Gruffalo autocollants et activités
-Poésie
-101 poésies et comptines du bout du pré : pour partir à la découverte de la nature / textes de Sophie Arnould ; ill. par Axel Scheffler, Éric Gasté, Michel Backès, Andrée Prigent. Paris : Bayard éd., 04/1998, 216 p.  (ISBN 2-227-70146-3)
-Le Guide des chats du Vieil Opossum (Old Possum's book of practical cats) / T.S. Eliot ; ill. Axel Scheffler ; trad. Jean-François Ménard. Paris : Gallimard jeunesse, 2010, 64 p.  (ISBN 978-2-07-063297-8)
-Romans illustrés
-Mina, mine de rien / Marie Farré ; ill. Axel Scheffler.
+Paris : Hélium, 2010, 35 p.  (ISBN 978-2-35851-022-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres-jeux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Méli-mélo de la savane : rimes rigolotes et créatures loufoques pour se tordre de rire ! (Flip flap farm). Paris : Gallimard jeunesse, 2015,  p.  (ISBN 978-2-07-066391-0)
+Méli-mélo de la jungle : "rimes rigolotes et créatures loufoques pour se tordre de rire ! (Flip flap jungle). Paris : Gallimard jeunesse, 2016,  p.  (ISBN 978-2-07-066672-0)
+Gruffalo autocollants et activités</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>101 poésies et comptines du bout du pré : pour partir à la découverte de la nature / textes de Sophie Arnould ; ill. par Axel Scheffler, Éric Gasté, Michel Backès, Andrée Prigent. Paris : Bayard éd., 04/1998, 216 p.  (ISBN 2-227-70146-3)
+Le Guide des chats du Vieil Opossum (Old Possum's book of practical cats) / T.S. Eliot ; ill. Axel Scheffler ; trad. Jean-François Ménard. Paris : Gallimard jeunesse, 2010, 64 p.  (ISBN 978-2-07-063297-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Axel_Scheffler</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mina, mine de rien / Marie Farré ; ill. Axel Scheffler.
 Paris : Gallimard jeunesse, coll. "Folio cadet" n° 229, 1990, 120 p.  (ISBN 2-07-031229-1)
 Mina change de tête / Marie Farré ; ill. Axel Scheffler.
 Paris : Gallimard jeunesse, coll. "Folio cadet" n° 281, 1993, 104 p.  (ISBN 2-07-057975-1)
@@ -648,31 +878,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Axel_Scheffler</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Axel_Scheffler</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 La société Magic Light Pictures (en) a produit ou coproduit plusieurs courts métrages d'animation adaptés des œuvres qu'il a co-créées avec Julia Donaldson :
